--- a/data/trans_orig/IP07C13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D6FBF1F-3DE4-4FD5-A065-DD967B54DFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE5CE43E-DF4A-4A2A-BBCE-C866504502F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E617624F-EA09-438C-906D-76841885F0E6}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{700F3E43-4935-4592-A430-C965230D545C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,235 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
   </si>
   <si>
     <t>5,66%</t>
@@ -100,33 +325,6 @@
     <t>9,74%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>37,41%</t>
   </si>
   <si>
@@ -154,30 +352,6 @@
     <t>43,96%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>54,73%</t>
   </si>
   <si>
@@ -205,105 +379,153 @@
     <t>59,34%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
     <t>7,09%</t>
   </si>
   <si>
@@ -331,24 +553,6 @@
     <t>11,0%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
     <t>28,91%</t>
   </si>
   <si>
@@ -376,21 +580,6 @@
     <t>39,49%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
     <t>63,34%</t>
   </si>
   <si>
@@ -418,193 +607,49 @@
     <t>63,88%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
   </si>
   <si>
     <t>4,72%</t>
@@ -634,27 +679,6 @@
     <t>7,32%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
     <t>36,82%</t>
   </si>
   <si>
@@ -682,30 +706,6 @@
     <t>42,22%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
     <t>57,4%</t>
   </si>
   <si>
@@ -733,6 +733,198 @@
     <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 43,64%)</t>
   </si>
   <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
     <t>6,5%</t>
   </si>
   <si>
@@ -760,18 +952,6 @@
     <t>10,06%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
     <t>32,94%</t>
   </si>
   <si>
@@ -799,24 +979,6 @@
     <t>37,71%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
     <t>58,42%</t>
   </si>
   <si>
@@ -844,109 +1006,121 @@
     <t>64,34%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>4,11%</t>
@@ -973,12 +1147,6 @@
     <t>10,93%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
     <t>31,11%</t>
   </si>
   <si>
@@ -1033,172 +1201,49 @@
     <t>66,16%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>4,12%</t>
@@ -1222,30 +1267,6 @@
     <t>7,23%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
     <t>30,1%</t>
   </si>
   <si>
@@ -1273,27 +1294,6 @@
     <t>34,39%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
     <t>63,94%</t>
   </si>
   <si>
@@ -1321,6 +1321,189 @@
     <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 45,58%)</t>
   </si>
   <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
     <t>7,79%</t>
   </si>
   <si>
@@ -1345,27 +1528,6 @@
     <t>10,17%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
     <t>30,58%</t>
   </si>
   <si>
@@ -1390,21 +1552,6 @@
     <t>39,54%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
     <t>60,87%</t>
   </si>
   <si>
@@ -1432,91 +1579,121 @@
     <t>62,27%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
   </si>
   <si>
     <t>3,28%</t>
@@ -1540,21 +1717,6 @@
     <t>3,57%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
     <t>39,83%</t>
   </si>
   <si>
@@ -1582,15 +1744,6 @@
     <t>45,36%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
     <t>54,44%</t>
   </si>
   <si>
@@ -1618,157 +1771,34 @@
     <t>58,71%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>6,07%</t>
@@ -1792,24 +1822,6 @@
     <t>4,73%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
     <t>32,95%</t>
   </si>
   <si>
@@ -1832,18 +1844,6 @@
   </si>
   <si>
     <t>37,3%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
   </si>
   <si>
     <t>59,84%</t>
@@ -2262,7 +2262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604D9B69-5F1D-4BE3-9499-5CCB537614E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9925E74-B321-4DC7-AAE3-BE7F0107369D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2380,10 +2380,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>5178</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2395,238 +2395,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>7126</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>19</v>
-      </c>
-      <c r="N4" s="7">
-        <v>12304</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>34195</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>38947</v>
+        <v>770</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>73143</v>
+        <v>770</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>1347</v>
+        <v>5236</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>7949</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>1347</v>
+        <v>13185</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>50032</v>
+        <v>7244</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>52454</v>
+        <v>4623</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>102485</v>
+        <v>11867</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,108 +2635,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>91419</v>
+        <v>12480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>99181</v>
+        <v>13342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>295</v>
+        <v>33</v>
       </c>
       <c r="N9" s="7">
-        <v>190600</v>
+        <v>25822</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1906</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1828</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>3733</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2745,13 +2745,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2775,121 +2775,121 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>25232</v>
+        <v>1906</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H12" s="7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>24920</v>
+        <v>1828</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="M12" s="7">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>50152</v>
+        <v>3733</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7">
         <v>38</v>
       </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>25232</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>24920</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>50152</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>44</v>
@@ -2898,13 +2898,13 @@
         <v>28351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -2913,13 +2913,13 @@
         <v>17413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>70</v>
@@ -2928,13 +2928,13 @@
         <v>45764</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,13 +2949,13 @@
         <v>55488</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>66</v>
@@ -2964,13 +2964,13 @@
         <v>44160</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -2979,270 +2979,270 @@
         <v>99649</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>6141</v>
+        <v>1347</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>5271</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>11412</v>
+        <v>1347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>578</v>
+        <v>667</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>654</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="7">
         <v>2</v>
       </c>
-      <c r="I17" s="7">
-        <v>1467</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
       <c r="N17" s="7">
-        <v>2045</v>
+        <v>1321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>25055</v>
+        <v>5178</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>29401</v>
+        <v>7126</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="M18" s="7">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="N18" s="7">
-        <v>54456</v>
+        <v>12304</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>34195</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="I19" s="7">
-        <v>726</v>
+        <v>38947</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="7">
         <v>114</v>
       </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
       <c r="N19" s="7">
-        <v>726</v>
+        <v>73143</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D20" s="7">
-        <v>54898</v>
+        <v>50032</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="I20" s="7">
-        <v>41444</v>
+        <v>52454</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="N20" s="7">
-        <v>96343</v>
+        <v>102485</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,108 +3251,108 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D21" s="7">
-        <v>86672</v>
+        <v>91419</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="I21" s="7">
-        <v>78309</v>
+        <v>99181</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>228</v>
+        <v>295</v>
       </c>
       <c r="N21" s="7">
-        <v>164981</v>
+        <v>190600</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>770</v>
+        <v>687</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>770</v>
+        <v>1345</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -3361,196 +3361,196 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>1094</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1094</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>5236</v>
+        <v>1265</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
+        <v>8</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4777</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M24" s="7">
         <v>10</v>
       </c>
-      <c r="I24" s="7">
-        <v>7949</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M24" s="7">
-        <v>17</v>
-      </c>
       <c r="N24" s="7">
-        <v>13185</v>
+        <v>6042</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>23233</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>17211</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>40443</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D26" s="7">
-        <v>7244</v>
+        <v>35579</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>51</v>
+      </c>
+      <c r="I26" s="7">
+        <v>31885</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H26" s="7">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4623</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>107</v>
+      </c>
+      <c r="N26" s="7">
+        <v>67463</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M26" s="7">
-        <v>15</v>
-      </c>
-      <c r="N26" s="7">
-        <v>11867</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,252 +3559,252 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D27" s="7">
-        <v>12480</v>
+        <v>60735</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I27" s="7">
-        <v>13342</v>
+        <v>55653</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="N27" s="7">
-        <v>25822</v>
+        <v>116388</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>1265</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>726</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>726</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H28" s="7">
-        <v>8</v>
-      </c>
-      <c r="I28" s="7">
-        <v>4777</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M28" s="7">
-        <v>10</v>
-      </c>
-      <c r="N28" s="7">
-        <v>6042</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>1094</v>
+        <v>1467</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" s="7">
-        <v>1094</v>
+        <v>2045</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D30" s="7">
-        <v>23233</v>
+        <v>6141</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" s="7">
+        <v>7</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5271</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>16</v>
+      </c>
+      <c r="N30" s="7">
+        <v>11412</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="7">
-        <v>29</v>
-      </c>
-      <c r="I30" s="7">
-        <v>17211</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M30" s="7">
-        <v>66</v>
-      </c>
-      <c r="N30" s="7">
-        <v>40443</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="7">
+        <v>37</v>
+      </c>
+      <c r="D31" s="7">
+        <v>25055</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="7">
         <v>38</v>
       </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7">
-        <v>659</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="I31" s="7">
+        <v>29401</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>687</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>75</v>
+      </c>
+      <c r="N31" s="7">
+        <v>54456</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M31" s="7">
-        <v>2</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1345</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>179</v>
@@ -3813,13 +3813,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D32" s="7">
-        <v>35579</v>
+        <v>54898</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>180</v>
@@ -3831,10 +3831,10 @@
         <v>182</v>
       </c>
       <c r="H32" s="7">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I32" s="7">
-        <v>31885</v>
+        <v>41444</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>183</v>
@@ -3846,10 +3846,10 @@
         <v>185</v>
       </c>
       <c r="M32" s="7">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="N32" s="7">
-        <v>67463</v>
+        <v>96343</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>186</v>
@@ -3867,49 +3867,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D33" s="7">
-        <v>60735</v>
+        <v>86672</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I33" s="7">
-        <v>55653</v>
+        <v>78309</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="N33" s="7">
-        <v>116388</v>
+        <v>164981</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,10 +3920,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>14489</v>
+        <v>2006</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>189</v>
@@ -3935,40 +3935,40 @@
         <v>191</v>
       </c>
       <c r="H34" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>19772</v>
+        <v>1412</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>192</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>5</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3418</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M34" s="7">
-        <v>52</v>
-      </c>
-      <c r="N34" s="7">
-        <v>34261</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>2</v>
@@ -3977,13 +3977,13 @@
         <v>1245</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -3992,13 +3992,13 @@
         <v>3215</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -4007,106 +4007,106 @@
         <v>4460</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="D36" s="7">
-        <v>112950</v>
+        <v>14489</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>30</v>
+      </c>
+      <c r="I36" s="7">
+        <v>19772</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H36" s="7">
-        <v>176</v>
-      </c>
-      <c r="I36" s="7">
-        <v>118428</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>52</v>
+      </c>
+      <c r="N36" s="7">
+        <v>34261</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M36" s="7">
-        <v>347</v>
-      </c>
-      <c r="N36" s="7">
-        <v>231378</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="D37" s="7">
-        <v>2006</v>
+        <v>112950</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>176</v>
+      </c>
+      <c r="I37" s="7">
+        <v>118428</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1412</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>218</v>
       </c>
       <c r="M37" s="7">
-        <v>5</v>
+        <v>347</v>
       </c>
       <c r="N37" s="7">
-        <v>3418</v>
+        <v>231378</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>219</v>
@@ -4121,7 +4121,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>264</v>
@@ -4163,7 +4163,7 @@
         <v>228</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>229</v>
@@ -4181,13 +4181,13 @@
         <v>306794</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>432</v>
@@ -4196,13 +4196,13 @@
         <v>290646</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>894</v>
@@ -4211,13 +4211,13 @@
         <v>597440</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4238,7 +4238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2679D350-014A-4E68-B752-094500B0A0A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F67174F-1790-4D9E-8144-56C28470346E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4356,253 +4356,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6144</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H4" s="7">
-        <v>11</v>
-      </c>
-      <c r="I4" s="7">
-        <v>7180</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="M4" s="7">
-        <v>20</v>
-      </c>
-      <c r="N4" s="7">
-        <v>13325</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1255</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>31142</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>30680</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="M6" s="7">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>61821</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>1383</v>
+        <v>7466</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2086</v>
+        <v>3582</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M7" s="7">
+        <v>12</v>
+      </c>
+      <c r="N7" s="7">
+        <v>11048</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M7" s="7">
-        <v>5</v>
-      </c>
-      <c r="N7" s="7">
-        <v>3469</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>55228</v>
+        <v>7024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="H8" s="7">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>57282</v>
+        <v>7693</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="M8" s="7">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="N8" s="7">
-        <v>112509</v>
+        <v>14717</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,108 +4611,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>94543</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="I9" s="7">
-        <v>97837</v>
+        <v>11275</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>192379</v>
+        <v>25765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>806</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
-        <v>1370</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
       <c r="I10" s="7">
-        <v>736</v>
+        <v>1631</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2106</v>
+        <v>2436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -4721,13 +4721,13 @@
         <v>1279</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4736,13 +4736,13 @@
         <v>1366</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -4751,121 +4751,121 @@
         <v>2645</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>16810</v>
+        <v>1370</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="H12" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>17363</v>
+        <v>736</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="M12" s="7">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>34173</v>
+        <v>2106</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>806</v>
+        <v>16810</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>1631</v>
+        <v>17363</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="N13" s="7">
-        <v>2436</v>
+        <v>34173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>116</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>24</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>54</v>
@@ -4874,13 +4874,13 @@
         <v>37222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -4889,13 +4889,13 @@
         <v>31075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>97</v>
@@ -4904,13 +4904,13 @@
         <v>68297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4925,13 @@
         <v>57487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -4940,13 +4940,13 @@
         <v>52171</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
@@ -4955,216 +4955,216 @@
         <v>109657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1383</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2086</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M16" s="7">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
-        <v>3689</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H16" s="7">
-        <v>10</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8555</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="M16" s="7">
-        <v>15</v>
-      </c>
       <c r="N16" s="7">
-        <v>12243</v>
+        <v>3469</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>47</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1255</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>27954</v>
+        <v>6144</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="H18" s="7">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>30231</v>
+        <v>7180</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="M18" s="7">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="N18" s="7">
-        <v>58185</v>
+        <v>13325</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>31142</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H19" s="7">
+        <v>47</v>
+      </c>
+      <c r="I19" s="7">
+        <v>30680</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M19" s="7">
+        <v>93</v>
+      </c>
+      <c r="N19" s="7">
+        <v>61821</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>312</v>
@@ -5173,52 +5173,52 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D20" s="7">
-        <v>58211</v>
+        <v>55228</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I20" s="7">
-        <v>46939</v>
+        <v>57282</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="N20" s="7">
-        <v>105150</v>
+        <v>112509</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,123 +5227,123 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D21" s="7">
-        <v>89854</v>
+        <v>94543</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="I21" s="7">
-        <v>85725</v>
+        <v>97837</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="N21" s="7">
-        <v>175578</v>
+        <v>192379</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>22</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>328</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5352,58 +5352,58 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1214</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2196</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H24" s="7">
         <v>8</v>
       </c>
-      <c r="D24" s="7">
-        <v>7466</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="I24" s="7">
+        <v>5050</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="H24" s="7">
-        <v>4</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3582</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>336</v>
@@ -5415,7 +5415,7 @@
         <v>12</v>
       </c>
       <c r="N24" s="7">
-        <v>11048</v>
+        <v>7246</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>338</v>
@@ -5430,103 +5430,103 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>14591</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>343</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>20996</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>344</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>41</v>
+        <v>345</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>35588</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="D26" s="7">
-        <v>7024</v>
+        <v>50426</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H26" s="7">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="I26" s="7">
-        <v>7693</v>
+        <v>37786</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="N26" s="7">
-        <v>14717</v>
+        <v>88212</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,252 +5535,252 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>69081</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="I27" s="7">
-        <v>11275</v>
+        <v>64511</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="N27" s="7">
-        <v>25765</v>
+        <v>133592</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>2196</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>350</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>351</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H28" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>5050</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>353</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>355</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="7">
-        <v>7246</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>357</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>1214</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1214</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D30" s="7">
-        <v>14591</v>
+        <v>3689</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>10</v>
+      </c>
+      <c r="I30" s="7">
+        <v>8555</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="H30" s="7">
-        <v>33</v>
-      </c>
-      <c r="I30" s="7">
-        <v>20996</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>15</v>
+      </c>
+      <c r="N30" s="7">
+        <v>12243</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="M30" s="7">
-        <v>57</v>
-      </c>
-      <c r="N30" s="7">
-        <v>35588</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="7">
         <v>38</v>
       </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
       <c r="D31" s="7">
-        <v>654</v>
+        <v>27954</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H31" s="7">
+        <v>39</v>
+      </c>
+      <c r="I31" s="7">
+        <v>30231</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>678</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>77</v>
+      </c>
+      <c r="N31" s="7">
+        <v>58185</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="M31" s="7">
-        <v>2</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1332</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>377</v>
@@ -5789,13 +5789,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D32" s="7">
-        <v>50426</v>
+        <v>58211</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>378</v>
@@ -5807,10 +5807,10 @@
         <v>380</v>
       </c>
       <c r="H32" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I32" s="7">
-        <v>37786</v>
+        <v>46939</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>381</v>
@@ -5822,10 +5822,10 @@
         <v>383</v>
       </c>
       <c r="M32" s="7">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="N32" s="7">
-        <v>88212</v>
+        <v>105150</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>384</v>
@@ -5843,49 +5843,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D33" s="7">
-        <v>69081</v>
+        <v>89854</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I33" s="7">
-        <v>64511</v>
+        <v>85725</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="N33" s="7">
-        <v>133592</v>
+        <v>175578</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,28 +5896,28 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D34" s="7">
-        <v>13398</v>
+        <v>2842</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>387</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>275</v>
+        <v>388</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H34" s="7">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I34" s="7">
-        <v>21521</v>
+        <v>4395</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>389</v>
+        <v>263</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>390</v>
@@ -5926,16 +5926,16 @@
         <v>391</v>
       </c>
       <c r="M34" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N34" s="7">
-        <v>34919</v>
+        <v>7237</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>392</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>387</v>
+        <v>194</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>393</v>
@@ -5944,7 +5944,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>5</v>
@@ -5968,7 +5968,7 @@
         <v>1975</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>397</v>
@@ -5995,100 +5995,100 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="D36" s="7">
-        <v>97963</v>
+        <v>13398</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>402</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>30</v>
+      </c>
+      <c r="I36" s="7">
+        <v>21521</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="H36" s="7">
-        <v>148</v>
-      </c>
-      <c r="I36" s="7">
-        <v>102852</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>50</v>
+      </c>
+      <c r="N36" s="7">
+        <v>34919</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="M36" s="7">
-        <v>289</v>
-      </c>
-      <c r="N36" s="7">
-        <v>200815</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="P36" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="D37" s="7">
-        <v>2842</v>
+        <v>97963</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>148</v>
+      </c>
+      <c r="I37" s="7">
+        <v>102852</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="H37" s="7">
-        <v>6</v>
-      </c>
-      <c r="I37" s="7">
-        <v>4395</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>289</v>
+      </c>
+      <c r="N37" s="7">
+        <v>200815</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="M37" s="7">
-        <v>10</v>
-      </c>
-      <c r="N37" s="7">
-        <v>7237</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>417</v>
@@ -6097,7 +6097,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>303</v>
@@ -6139,7 +6139,7 @@
         <v>424</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>425</v>
@@ -6157,13 +6157,13 @@
         <v>325454</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>443</v>
@@ -6172,13 +6172,13 @@
         <v>311518</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>916</v>
@@ -6187,13 +6187,13 @@
         <v>636971</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6214,7 +6214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E086834-B6F1-41FE-A05E-490FB91CFFE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDDD7BF-2285-41E0-BB55-39AF59991C9A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6332,253 +6332,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7">
-        <v>8001</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H4" s="7">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6170</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="M4" s="7">
-        <v>22</v>
-      </c>
-      <c r="N4" s="7">
-        <v>14171</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>435</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>436</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1537</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>437</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2327</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>439</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>440</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>31422</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>443</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>444</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>38654</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>445</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>446</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>149</v>
+        <v>427</v>
       </c>
       <c r="M6" s="7">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>70077</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>447</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2851</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>429</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>1808</v>
+        <v>4901</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>1808</v>
+        <v>7752</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>436</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
-        <v>62556</v>
+        <v>10356</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="H8" s="7">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>54162</v>
+        <v>7822</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="M8" s="7">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="N8" s="7">
-        <v>116719</v>
+        <v>18178</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,108 +6587,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>102769</v>
+        <v>13207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>102332</v>
+        <v>12723</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>303</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>205101</v>
+        <v>25930</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>6814</v>
+        <v>727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>464</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2782</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>467</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>9596</v>
+        <v>727</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>471</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6712,13 +6712,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6727,121 +6727,121 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>18983</v>
+        <v>6814</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="H12" s="7">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>20322</v>
+        <v>2782</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>478</v>
+        <v>46</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="M12" s="7">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>39305</v>
+        <v>9596</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>727</v>
+        <v>18983</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>458</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>459</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H13" s="7">
+        <v>28</v>
+      </c>
+      <c r="I13" s="7">
+        <v>20322</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="M13" s="7">
+        <v>52</v>
+      </c>
+      <c r="N13" s="7">
+        <v>39305</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>727</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>362</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>41</v>
@@ -6850,13 +6850,13 @@
         <v>31312</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -6865,13 +6865,13 @@
         <v>33177</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="M14" s="7">
         <v>89</v>
@@ -6880,13 +6880,13 @@
         <v>64489</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6901,13 @@
         <v>57836</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -6916,13 +6916,13 @@
         <v>56281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -6931,270 +6931,270 @@
         <v>114117</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>3260</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>493</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>8596</v>
+        <v>1808</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>11856</v>
+        <v>1808</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>499</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>500</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>2445</v>
+        <v>790</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1479</v>
+        <v>1537</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>483</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>3924</v>
+        <v>2327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>43</v>
+        <v>486</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>39638</v>
+        <v>8001</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="H18" s="7">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>40034</v>
+        <v>6170</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="M18" s="7">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="N18" s="7">
-        <v>79673</v>
+        <v>14171</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>511</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>31422</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>496</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>497</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>270</v>
+        <v>498</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="I19" s="7">
-        <v>583</v>
+        <v>38654</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="N19" s="7">
-        <v>583</v>
+        <v>70077</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>502</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D20" s="7">
-        <v>54185</v>
+        <v>62556</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="H20" s="7">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I20" s="7">
-        <v>52485</v>
+        <v>54162</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="M20" s="7">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="N20" s="7">
-        <v>106670</v>
+        <v>116719</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,54 +7203,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D21" s="7">
-        <v>99528</v>
+        <v>102769</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="I21" s="7">
-        <v>103178</v>
+        <v>102332</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="N21" s="7">
-        <v>202706</v>
+        <v>205101</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7262,49 +7262,49 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>513</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>514</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>22</v>
+        <v>449</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -7313,196 +7313,196 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>513</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>526</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>517</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>2851</v>
+        <v>3036</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>4901</v>
+        <v>4140</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="M24" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N24" s="7">
-        <v>7752</v>
+        <v>7176</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>21765</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>528</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>529</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>18687</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>530</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>41</v>
+        <v>531</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>40452</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>533</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>41</v>
+        <v>534</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D26" s="7">
-        <v>10356</v>
+        <v>49820</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>71</v>
+      </c>
+      <c r="I26" s="7">
+        <v>45626</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="H26" s="7">
-        <v>9</v>
-      </c>
-      <c r="I26" s="7">
-        <v>7822</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>140</v>
+      </c>
+      <c r="N26" s="7">
+        <v>95447</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="M26" s="7">
-        <v>21</v>
-      </c>
-      <c r="N26" s="7">
-        <v>18178</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,252 +7511,252 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13207</v>
+        <v>74621</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="I27" s="7">
-        <v>12723</v>
+        <v>69909</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N27" s="7">
-        <v>25930</v>
+        <v>144530</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>3036</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>583</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>583</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="H28" s="7">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7">
-        <v>4140</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="M28" s="7">
-        <v>10</v>
-      </c>
-      <c r="N28" s="7">
-        <v>7176</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>2445</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
+        <v>548</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>524</v>
+        <v>1479</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>179</v>
+        <v>456</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N29" s="7">
-        <v>524</v>
+        <v>3924</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D30" s="7">
-        <v>21765</v>
+        <v>3260</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H30" s="7">
+        <v>11</v>
+      </c>
+      <c r="I30" s="7">
+        <v>8596</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>16</v>
+      </c>
+      <c r="N30" s="7">
+        <v>11856</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="H30" s="7">
-        <v>29</v>
-      </c>
-      <c r="I30" s="7">
-        <v>18687</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="M30" s="7">
-        <v>60</v>
-      </c>
-      <c r="N30" s="7">
-        <v>40452</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>563</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>564</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>39638</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>559</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>41</v>
+        <v>560</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I31" s="7">
-        <v>931</v>
+        <v>40034</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="M31" s="7">
+        <v>108</v>
+      </c>
+      <c r="N31" s="7">
+        <v>79673</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>931</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>567</v>
@@ -7765,13 +7765,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D32" s="7">
-        <v>49820</v>
+        <v>54185</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>568</v>
@@ -7783,10 +7783,10 @@
         <v>570</v>
       </c>
       <c r="H32" s="7">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I32" s="7">
-        <v>45626</v>
+        <v>52485</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>571</v>
@@ -7798,10 +7798,10 @@
         <v>573</v>
       </c>
       <c r="M32" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N32" s="7">
-        <v>95447</v>
+        <v>106670</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>574</v>
@@ -7819,49 +7819,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D33" s="7">
-        <v>74621</v>
+        <v>99528</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="I33" s="7">
-        <v>69909</v>
+        <v>103178</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="N33" s="7">
-        <v>144530</v>
+        <v>202706</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7872,55 +7872,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>21111</v>
+        <v>727</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>5</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3322</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="H34" s="7">
-        <v>31</v>
-      </c>
-      <c r="I34" s="7">
-        <v>21689</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>6</v>
+      </c>
+      <c r="N34" s="7">
+        <v>4048</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="M34" s="7">
-        <v>61</v>
-      </c>
-      <c r="N34" s="7">
-        <v>42801</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="P34" s="7" t="s">
-        <v>583</v>
+        <v>397</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>353</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>4</v>
@@ -7929,13 +7929,13 @@
         <v>3234</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -7944,13 +7944,13 @@
         <v>3540</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -7959,121 +7959,121 @@
         <v>6774</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="D36" s="7">
-        <v>114659</v>
+        <v>21111</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="H36" s="7">
+        <v>31</v>
+      </c>
+      <c r="I36" s="7">
+        <v>21689</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="H36" s="7">
-        <v>176</v>
-      </c>
-      <c r="I36" s="7">
-        <v>122599</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>61</v>
+      </c>
+      <c r="N36" s="7">
+        <v>42801</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="M36" s="7">
+      <c r="Q36" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="N36" s="7">
-        <v>237258</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="D37" s="7">
-        <v>727</v>
+        <v>114659</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>215</v>
+        <v>594</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>502</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="H37" s="7">
+        <v>176</v>
+      </c>
+      <c r="I37" s="7">
+        <v>122599</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="H37" s="7">
-        <v>5</v>
-      </c>
-      <c r="I37" s="7">
-        <v>3322</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="K37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>335</v>
+      </c>
+      <c r="N37" s="7">
+        <v>237258</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="M37" s="7">
-        <v>6</v>
-      </c>
-      <c r="N37" s="7">
-        <v>4048</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>284</v>
@@ -8133,13 +8133,13 @@
         <v>347960</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>491</v>
@@ -8148,13 +8148,13 @@
         <v>344424</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>969</v>
@@ -8163,13 +8163,13 @@
         <v>692385</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE5CE43E-DF4A-4A2A-BBCE-C866504502F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A38E64A4-2D74-4BAA-829C-70CEF91CC1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{700F3E43-4935-4592-A430-C965230D545C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{574208AF-53AF-4440-BC27-F863A77CAE43}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="616">
   <si>
     <t>Menores según frecuencia de estar contento con su forma de ser en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -70,1807 +70,1822 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
   </si>
   <si>
     <t>31,77%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 45,58%)</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 45,58%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>2,21%</t>
+    <t>2,03%</t>
   </si>
   <si>
     <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1896,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1977,39 +1992,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2061,7 +2076,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2172,13 +2187,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2187,6 +2195,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2251,19 +2266,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9925E74-B321-4DC7-AAE3-BE7F0107369D}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE457634-61FB-432B-BCAF-F1190586D554}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2380,10 +2415,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7244</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2395,91 +2430,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>4623</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>11867</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>5236</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7949</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>13185</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2488,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -2503,13 +2538,13 @@
         <v>770</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -2518,115 +2553,115 @@
         <v>770</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>5236</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>7949</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>13185</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7">
-        <v>7244</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>4623</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>11867</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,106 +2723,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>28351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>17413</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>45764</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>25232</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>24920</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>50152</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -2796,13 +2831,13 @@
         <v>1906</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -2811,13 +2846,13 @@
         <v>1828</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -2826,115 +2861,115 @@
         <v>3733</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>25232</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>24920</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>50152</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7">
-        <v>44</v>
-      </c>
-      <c r="D14" s="7">
-        <v>28351</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>17413</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>45764</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,112 +3025,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D16" s="7">
-        <v>1347</v>
+        <v>50032</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>76</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>52454</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="N16" s="7">
-        <v>1347</v>
+        <v>102485</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7">
-        <v>667</v>
+        <v>34195</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="I17" s="7">
-        <v>654</v>
+        <v>38947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="N17" s="7">
-        <v>1321</v>
+        <v>73143</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>8</v>
@@ -3104,13 +3139,13 @@
         <v>5178</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -3119,13 +3154,13 @@
         <v>7126</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -3134,115 +3169,115 @@
         <v>12304</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>34195</v>
+        <v>667</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>38947</v>
+        <v>654</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>73143</v>
+        <v>1321</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1347</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C20" s="7">
-        <v>76</v>
-      </c>
-      <c r="D20" s="7">
-        <v>50032</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="7">
-        <v>82</v>
-      </c>
-      <c r="I20" s="7">
-        <v>52454</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>109</v>
       </c>
       <c r="M20" s="7">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>102485</v>
+        <v>1347</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,112 +3333,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D22" s="7">
-        <v>659</v>
+        <v>35579</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="I22" s="7">
-        <v>687</v>
+        <v>31885</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="N22" s="7">
-        <v>1345</v>
+        <v>67463</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>23233</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I23" s="7">
-        <v>1094</v>
+        <v>17211</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="N23" s="7">
-        <v>1094</v>
+        <v>40443</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>2</v>
@@ -3412,13 +3447,13 @@
         <v>1265</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -3427,13 +3462,13 @@
         <v>4777</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -3442,112 +3477,112 @@
         <v>6042</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>23233</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>17211</v>
+        <v>1094</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M25" s="7">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>40443</v>
+        <v>1094</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>35579</v>
+        <v>659</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H26" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>31885</v>
+        <v>687</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>67463</v>
+        <v>1345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>149</v>
@@ -3612,106 +3647,106 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>54898</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="I28" s="7">
-        <v>726</v>
+        <v>41444</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="N28" s="7">
-        <v>726</v>
+        <v>96343</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D29" s="7">
-        <v>578</v>
+        <v>25055</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="I29" s="7">
-        <v>1467</v>
+        <v>29401</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="N29" s="7">
-        <v>2045</v>
+        <v>54456</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>9</v>
@@ -3720,13 +3755,13 @@
         <v>6141</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -3735,13 +3770,13 @@
         <v>5271</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
@@ -3750,112 +3785,112 @@
         <v>11412</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>25055</v>
+        <v>578</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H31" s="7">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>29401</v>
+        <v>1467</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M31" s="7">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="N31" s="7">
-        <v>54456</v>
+        <v>2045</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="7">
-        <v>79</v>
-      </c>
-      <c r="D32" s="7">
-        <v>54898</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H32" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>41444</v>
+        <v>726</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M32" s="7">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>96343</v>
+        <v>726</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>188</v>
@@ -3920,10 +3955,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>3</v>
+        <v>264</v>
       </c>
       <c r="D34" s="7">
-        <v>2006</v>
+        <v>176103</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>189</v>
@@ -3935,31 +3970,31 @@
         <v>191</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="I34" s="7">
-        <v>1412</v>
+        <v>147819</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>192</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M34" s="7">
-        <v>5</v>
+        <v>483</v>
       </c>
       <c r="N34" s="7">
-        <v>3418</v>
+        <v>323923</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>196</v>
@@ -3968,58 +4003,58 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="D35" s="7">
-        <v>1245</v>
+        <v>112950</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>197</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H35" s="7">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="I35" s="7">
-        <v>3215</v>
+        <v>118428</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M35" s="7">
-        <v>7</v>
+        <v>347</v>
       </c>
       <c r="N35" s="7">
-        <v>4460</v>
+        <v>231378</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>22</v>
@@ -4028,13 +4063,13 @@
         <v>14489</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H36" s="7">
         <v>30</v>
@@ -4043,13 +4078,13 @@
         <v>19772</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M36" s="7">
         <v>52</v>
@@ -4058,115 +4093,115 @@
         <v>34261</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="D37" s="7">
-        <v>112950</v>
+        <v>1245</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H37" s="7">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="I37" s="7">
-        <v>118428</v>
+        <v>3215</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M37" s="7">
-        <v>347</v>
+        <v>7</v>
       </c>
       <c r="N37" s="7">
-        <v>231378</v>
+        <v>4460</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>264</v>
+        <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>176103</v>
+        <v>2006</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H38" s="7">
-        <v>219</v>
+        <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>147819</v>
+        <v>1412</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>227</v>
       </c>
       <c r="M38" s="7">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="N38" s="7">
-        <v>323923</v>
+        <v>3418</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>228</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,6 +4253,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4238,8 +4278,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F67174F-1790-4D9E-8144-56C28470346E}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A83EE5-0529-48B3-8B33-69FD08F81A3E}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4255,7 +4295,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4356,106 +4396,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7024</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>7693</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>14717</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>7466</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3582</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M5" s="7">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>11048</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4464,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4479,13 +4519,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4494,115 +4534,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>7466</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3582</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>11048</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7">
-        <v>7024</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>7693</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>244</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>245</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>14717</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,106 +4704,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>806</v>
+        <v>37222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>1631</v>
+        <v>31075</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="N10" s="7">
-        <v>2436</v>
+        <v>68297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>1279</v>
+        <v>16810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>1366</v>
+        <v>17363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="N11" s="7">
-        <v>2645</v>
+        <v>34173</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -4772,13 +4812,13 @@
         <v>1370</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4787,13 +4827,13 @@
         <v>736</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -4802,115 +4842,115 @@
         <v>2106</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>16810</v>
+        <v>1279</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>17363</v>
+        <v>1366</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>34173</v>
+        <v>2645</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>37222</v>
+        <v>806</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1631</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M14" s="7">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2436</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H14" s="7">
-        <v>43</v>
-      </c>
-      <c r="I14" s="7">
-        <v>31075</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M14" s="7">
-        <v>97</v>
-      </c>
-      <c r="N14" s="7">
-        <v>68297</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>283</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,112 +5006,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7">
-        <v>1383</v>
+        <v>55228</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="I16" s="7">
-        <v>2086</v>
+        <v>57282</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="N16" s="7">
-        <v>3469</v>
+        <v>112509</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7">
-        <v>646</v>
+        <v>31142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H17" s="7">
         <v>47</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
       <c r="I17" s="7">
-        <v>609</v>
+        <v>30680</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="N17" s="7">
-        <v>1255</v>
+        <v>61821</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>9</v>
@@ -5080,13 +5120,13 @@
         <v>6144</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>295</v>
+        <v>141</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -5095,13 +5135,13 @@
         <v>7180</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -5110,115 +5150,115 @@
         <v>13325</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>31142</v>
+        <v>646</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>30680</v>
+        <v>609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>308</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>61821</v>
+        <v>1255</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>311</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>55228</v>
+        <v>1383</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H20" s="7">
+        <v>3</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2086</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H20" s="7">
-        <v>86</v>
-      </c>
-      <c r="I20" s="7">
-        <v>57282</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>112509</v>
+        <v>3469</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,112 +5314,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D22" s="7">
-        <v>654</v>
+        <v>50426</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="I22" s="7">
-        <v>678</v>
+        <v>37786</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="N22" s="7">
-        <v>1332</v>
+        <v>88212</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D23" s="7">
-        <v>1214</v>
+        <v>14591</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>335</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>20996</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="N23" s="7">
-        <v>1214</v>
+        <v>35588</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
@@ -5388,13 +5428,13 @@
         <v>2196</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -5403,13 +5443,13 @@
         <v>5050</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -5418,115 +5458,115 @@
         <v>7246</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>340</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>14591</v>
+        <v>1214</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>342</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H25" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>20996</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>344</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>345</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="M25" s="7">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>35588</v>
+        <v>1214</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>348</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>50426</v>
+        <v>654</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H26" s="7">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>37786</v>
+        <v>678</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>354</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>88212</v>
+        <v>1332</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,106 +5628,106 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>58211</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>360</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>46939</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>363</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>364</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>365</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>105150</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>367</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>27954</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>369</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>370</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>30231</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>372</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>373</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>374</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>58185</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>375</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>376</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>5</v>
@@ -5696,13 +5736,13 @@
         <v>3689</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>361</v>
+        <v>134</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -5711,13 +5751,13 @@
         <v>8555</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>153</v>
+        <v>381</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -5726,115 +5766,115 @@
         <v>12243</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>27954</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>369</v>
+        <v>31</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>370</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="H31" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>30231</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>372</v>
+        <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>373</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="M31" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>58185</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>375</v>
+        <v>31</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>376</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="7">
-        <v>80</v>
-      </c>
-      <c r="D32" s="7">
-        <v>58211</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>379</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H32" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>46939</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>381</v>
+        <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>382</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M32" s="7">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>105150</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>384</v>
+        <v>31</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>385</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,106 +5936,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="D34" s="7">
-        <v>2842</v>
+        <v>208111</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H34" s="7">
-        <v>6</v>
+        <v>256</v>
       </c>
       <c r="I34" s="7">
-        <v>4395</v>
+        <v>180775</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>263</v>
+        <v>391</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M34" s="7">
-        <v>10</v>
+        <v>559</v>
       </c>
       <c r="N34" s="7">
-        <v>7237</v>
+        <v>388885</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>194</v>
+        <v>395</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="D35" s="7">
-        <v>3139</v>
+        <v>97963</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H35" s="7">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="I35" s="7">
-        <v>1975</v>
+        <v>102852</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>259</v>
+        <v>400</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M35" s="7">
-        <v>8</v>
+        <v>289</v>
       </c>
       <c r="N35" s="7">
-        <v>5114</v>
+        <v>200815</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>401</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>20</v>
@@ -6004,13 +6044,13 @@
         <v>13398</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>402</v>
+        <v>316</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>256</v>
+        <v>405</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H36" s="7">
         <v>30</v>
@@ -6019,13 +6059,13 @@
         <v>21521</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M36" s="7">
         <v>50</v>
@@ -6034,115 +6074,115 @@
         <v>34919</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="D37" s="7">
-        <v>97963</v>
+        <v>3139</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>410</v>
+        <v>218</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H37" s="7">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="I37" s="7">
-        <v>102852</v>
+        <v>1975</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="M37" s="7">
-        <v>289</v>
+        <v>8</v>
       </c>
       <c r="N37" s="7">
-        <v>200815</v>
+        <v>5114</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>417</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>303</v>
+        <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>208111</v>
+        <v>2842</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>420</v>
       </c>
       <c r="H38" s="7">
-        <v>256</v>
+        <v>6</v>
       </c>
       <c r="I38" s="7">
-        <v>180775</v>
+        <v>4395</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>10</v>
+      </c>
+      <c r="N38" s="7">
+        <v>7237</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="M38" s="7">
-        <v>559</v>
-      </c>
-      <c r="N38" s="7">
-        <v>388885</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="P38" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,6 +6234,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -6214,8 +6259,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDDD7BF-2285-41E0-BB55-39AF59991C9A}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E851AD4-406C-458E-8B49-8E81AC5B3A57}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6231,7 +6276,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6332,106 +6377,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>10356</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>426</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>427</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>428</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>7822</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>429</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>430</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>18178</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>432</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>433</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2851</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>435</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>357</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>436</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>4901</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>437</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>438</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>7752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>440</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>441</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -6440,13 +6485,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6455,13 +6500,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6470,115 +6515,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2851</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>429</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>430</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>431</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>4901</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>432</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>433</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>7752</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>435</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>436</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7">
-        <v>10356</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>439</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>440</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>7822</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>441</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>442</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>443</v>
       </c>
       <c r="M8" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>18178</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,106 +6685,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>727</v>
+        <v>31312</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>445</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>446</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>447</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>33177</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>448</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>449</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="N10" s="7">
-        <v>727</v>
+        <v>64489</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>452</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>18983</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>454</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>455</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>20322</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>457</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>458</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>39305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>460</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>461</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>115</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>9</v>
@@ -6748,13 +6793,13 @@
         <v>6814</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -6763,13 +6808,13 @@
         <v>2782</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>46</v>
+        <v>467</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -6778,112 +6823,112 @@
         <v>9596</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>456</v>
+        <v>206</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>18983</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>458</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>459</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>20322</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>461</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>462</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="M13" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>39305</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>464</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>465</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>466</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>727</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="7">
-        <v>41</v>
-      </c>
-      <c r="D14" s="7">
-        <v>31312</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="H14" s="7">
-        <v>48</v>
-      </c>
-      <c r="I14" s="7">
-        <v>33177</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>472</v>
       </c>
       <c r="M14" s="7">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>64489</v>
+        <v>727</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>474</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>475</v>
@@ -6942,112 +6987,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>62556</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>476</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>477</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="I16" s="7">
-        <v>1808</v>
+        <v>54162</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="N16" s="7">
-        <v>1808</v>
+        <v>116719</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>483</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D17" s="7">
-        <v>790</v>
+        <v>31422</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>486</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="I17" s="7">
-        <v>1537</v>
+        <v>38654</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>489</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="N17" s="7">
-        <v>2327</v>
+        <v>70077</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>12</v>
@@ -7056,13 +7101,13 @@
         <v>8001</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -7071,13 +7116,13 @@
         <v>6170</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -7086,115 +7131,115 @@
         <v>14171</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>31422</v>
+        <v>790</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>497</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="H19" s="7">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>38654</v>
+        <v>1537</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>500</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>505</v>
       </c>
       <c r="M19" s="7">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>70077</v>
+        <v>2327</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7">
-        <v>90</v>
-      </c>
-      <c r="D20" s="7">
-        <v>62556</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>505</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>506</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>54162</v>
+        <v>1808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M20" s="7">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>116719</v>
+        <v>1808</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,112 +7295,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>49820</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>515</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>516</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="I22" s="7">
-        <v>931</v>
+        <v>45626</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>519</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="N22" s="7">
-        <v>931</v>
+        <v>95447</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>449</v>
+        <v>521</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>522</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>21765</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>524</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>525</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I23" s="7">
-        <v>524</v>
+        <v>18687</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>201</v>
+        <v>527</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>528</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>529</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="N23" s="7">
-        <v>524</v>
+        <v>40452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>531</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
@@ -7364,13 +7409,13 @@
         <v>3036</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7379,13 +7424,13 @@
         <v>4140</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>522</v>
+        <v>320</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -7394,115 +7439,115 @@
         <v>7176</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>21765</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>527</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>528</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="H25" s="7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>18687</v>
+        <v>524</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>530</v>
+        <v>220</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>531</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="M25" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>40452</v>
+        <v>524</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>534</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>535</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="7">
-        <v>69</v>
-      </c>
-      <c r="D26" s="7">
-        <v>49820</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>537</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H26" s="7">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>45626</v>
+        <v>931</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>539</v>
+        <v>65</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>540</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="M26" s="7">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>95447</v>
+        <v>931</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>542</v>
+        <v>474</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>543</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,106 +7609,106 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>54185</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>546</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>547</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>263</v>
+        <v>548</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="I28" s="7">
-        <v>583</v>
+        <v>52485</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>550</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>45</v>
+        <v>551</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="N28" s="7">
-        <v>583</v>
+        <v>106670</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>553</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D29" s="7">
-        <v>2445</v>
+        <v>39638</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>156</v>
+        <v>556</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="I29" s="7">
-        <v>1479</v>
+        <v>40034</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>558</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>559</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>456</v>
+        <v>560</v>
       </c>
       <c r="M29" s="7">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="N29" s="7">
-        <v>3924</v>
+        <v>79673</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>78</v>
+        <v>562</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>5</v>
@@ -7672,13 +7717,13 @@
         <v>3260</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -7687,13 +7732,13 @@
         <v>8596</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>555</v>
+        <v>495</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
@@ -7702,115 +7747,115 @@
         <v>11856</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>526</v>
+        <v>570</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>39638</v>
+        <v>2445</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>560</v>
+        <v>177</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="H31" s="7">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>40034</v>
+        <v>1479</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>563</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="M31" s="7">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="N31" s="7">
-        <v>79673</v>
+        <v>3924</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>566</v>
+        <v>110</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="7">
-        <v>72</v>
-      </c>
-      <c r="D32" s="7">
-        <v>54185</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>569</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>570</v>
+        <v>272</v>
       </c>
       <c r="H32" s="7">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>52485</v>
+        <v>583</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>572</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="M32" s="7">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>106670</v>
+        <v>583</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>575</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7872,106 +7917,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="D34" s="7">
-        <v>727</v>
+        <v>208229</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>190</v>
+        <v>581</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>582</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="H34" s="7">
-        <v>5</v>
+        <v>274</v>
       </c>
       <c r="I34" s="7">
-        <v>3322</v>
+        <v>193274</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>394</v>
+        <v>584</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="M34" s="7">
-        <v>6</v>
+        <v>558</v>
       </c>
       <c r="N34" s="7">
-        <v>4048</v>
+        <v>401503</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>397</v>
+        <v>588</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>115</v>
+        <v>589</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="D35" s="7">
-        <v>3234</v>
+        <v>114659</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>152</v>
+        <v>590</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>258</v>
+        <v>592</v>
       </c>
       <c r="H35" s="7">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="I35" s="7">
-        <v>3540</v>
+        <v>122600</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>261</v>
+        <v>555</v>
       </c>
       <c r="M35" s="7">
-        <v>9</v>
+        <v>335</v>
       </c>
       <c r="N35" s="7">
-        <v>6774</v>
+        <v>237258</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>30</v>
@@ -7980,13 +8025,13 @@
         <v>21111</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -7995,13 +8040,13 @@
         <v>21689</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="M36" s="7">
         <v>61</v>
@@ -8010,115 +8055,115 @@
         <v>42801</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>116</v>
+        <v>604</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>335</v>
+        <v>606</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="D37" s="7">
-        <v>114659</v>
+        <v>3234</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>594</v>
+        <v>185</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>502</v>
+        <v>229</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>595</v>
+        <v>131</v>
       </c>
       <c r="H37" s="7">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="I37" s="7">
-        <v>122599</v>
+        <v>3540</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>597</v>
+        <v>418</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="M37" s="7">
-        <v>335</v>
+        <v>9</v>
       </c>
       <c r="N37" s="7">
-        <v>237258</v>
+        <v>6774</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>284</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>208229</v>
+        <v>727</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>603</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>604</v>
+        <v>142</v>
       </c>
       <c r="H38" s="7">
-        <v>274</v>
+        <v>5</v>
       </c>
       <c r="I38" s="7">
-        <v>193273</v>
+        <v>3322</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>605</v>
+        <v>413</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="M38" s="7">
-        <v>558</v>
+        <v>6</v>
       </c>
       <c r="N38" s="7">
-        <v>401503</v>
+        <v>4048</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>609</v>
+        <v>229</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>610</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,7 +8190,7 @@
         <v>491</v>
       </c>
       <c r="I39" s="7">
-        <v>344424</v>
+        <v>344425</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>42</v>
@@ -8170,6 +8215,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C13-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A38E64A4-2D74-4BAA-829C-70CEF91CC1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81982B40-6081-4411-968D-C28473C93B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{574208AF-53AF-4440-BC27-F863A77CAE43}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2179F9ED-F5B1-42CC-A811-26DFC24D2787}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="603">
   <si>
     <t>Menores según frecuencia de estar contento con su forma de ser en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,28 +76,28 @@
     <t>58,05%</t>
   </si>
   <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
   </si>
   <si>
     <t>34,65%</t>
   </si>
   <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
   </si>
   <si>
     <t>45,96%</t>
   </si>
   <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>41,95%</t>
   </si>
   <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
   </si>
   <si>
     <t>59,58%</t>
   </si>
   <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
   </si>
   <si>
     <t>51,06%</t>
   </si>
   <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -145,13 +145,13 @@
     <t>5,77%</t>
   </si>
   <si>
-    <t>31,87%</t>
+    <t>25,07%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>16,94%</t>
+    <t>17,02%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -169,1723 +169,1684 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>51,09%</t>
   </si>
   <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
   </si>
   <si>
     <t>39,43%</t>
   </si>
   <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
   </si>
   <si>
     <t>45,93%</t>
   </si>
   <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
   </si>
   <si>
     <t>45,47%</t>
   </si>
   <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
+    <t>55,9%</t>
   </si>
   <si>
     <t>56,43%</t>
   </si>
   <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
+    <t>43,47%</t>
   </si>
   <si>
     <t>50,33%</t>
   </si>
   <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>9,08%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2016 (Tasa respuesta: 45,58%)</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 45,58%)</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>2,17%</t>
   </si>
 </sst>
 </file>
@@ -2297,7 +2258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE457634-61FB-432B-BCAF-F1190586D554}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F0A033-1CEE-4016-BE44-9BACFE8CE86C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2783,10 +2744,10 @@
         <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -2795,13 +2756,13 @@
         <v>24920</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
         <v>75</v>
@@ -2810,13 +2771,13 @@
         <v>50152</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,13 +2792,13 @@
         <v>1906</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -2846,13 +2807,13 @@
         <v>1828</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -2861,13 +2822,13 @@
         <v>3733</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,7 +2849,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2903,7 +2864,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2918,7 +2879,7 @@
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,7 +2900,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2954,7 +2915,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2969,7 +2930,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,7 +2986,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3037,13 +2998,13 @@
         <v>50032</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>82</v>
@@ -3052,13 +3013,13 @@
         <v>52454</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>158</v>
@@ -3067,13 +3028,13 @@
         <v>102485</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3049,13 @@
         <v>34195</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -3103,13 +3064,13 @@
         <v>38947</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
@@ -3118,13 +3079,13 @@
         <v>73143</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3100,13 @@
         <v>5178</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -3154,13 +3115,13 @@
         <v>7126</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -3169,13 +3130,13 @@
         <v>12304</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,13 +3151,13 @@
         <v>667</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3205,13 +3166,13 @@
         <v>654</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3220,13 +3181,13 @@
         <v>1321</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3202,13 @@
         <v>1347</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3262,7 +3223,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3271,13 +3232,13 @@
         <v>1347</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,7 +3294,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3345,13 +3306,13 @@
         <v>35579</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -3360,13 +3321,13 @@
         <v>31885</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>107</v>
@@ -3375,13 +3336,13 @@
         <v>67463</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3357,13 @@
         <v>23233</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -3411,13 +3372,13 @@
         <v>17211</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M23" s="7">
         <v>66</v>
@@ -3426,13 +3387,13 @@
         <v>40443</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3408,13 @@
         <v>1265</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -3462,13 +3423,13 @@
         <v>4777</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -3477,13 +3438,13 @@
         <v>6042</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,7 +3465,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3513,13 +3474,13 @@
         <v>1094</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -3528,13 +3489,13 @@
         <v>1094</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3510,13 @@
         <v>659</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3564,13 +3525,13 @@
         <v>687</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3579,13 +3540,13 @@
         <v>1345</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,7 +3602,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3653,13 +3614,13 @@
         <v>54898</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H28" s="7">
         <v>54</v>
@@ -3668,13 +3629,13 @@
         <v>41444</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M28" s="7">
         <v>133</v>
@@ -3683,13 +3644,13 @@
         <v>96343</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3665,13 @@
         <v>25055</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="H29" s="7">
         <v>38</v>
@@ -3719,13 +3680,13 @@
         <v>29401</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>75</v>
@@ -3734,13 +3695,13 @@
         <v>54456</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,13 +3716,13 @@
         <v>6141</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -3770,13 +3731,13 @@
         <v>5271</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
@@ -3785,13 +3746,13 @@
         <v>11412</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3767,13 @@
         <v>578</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -3821,13 +3782,13 @@
         <v>1467</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -3836,13 +3797,13 @@
         <v>2045</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,7 +3824,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3872,13 +3833,13 @@
         <v>726</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3887,13 +3848,13 @@
         <v>726</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3922,13 @@
         <v>176103</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H34" s="7">
         <v>219</v>
@@ -3976,13 +3937,13 @@
         <v>147819</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M34" s="7">
         <v>483</v>
@@ -3991,10 +3952,10 @@
         <v>323923</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>196</v>
@@ -4150,7 +4111,7 @@
         <v>221</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4126,13 @@
         <v>2006</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -4180,13 +4141,13 @@
         <v>1412</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -4195,13 +4156,13 @@
         <v>3418</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,7 +4218,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4278,7 +4239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A83EE5-0529-48B3-8B33-69FD08F81A3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320541BC-7849-4AA4-AD29-563E56496577}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4295,7 +4256,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4402,13 +4363,13 @@
         <v>7024</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4417,13 +4378,13 @@
         <v>7693</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4432,13 +4393,13 @@
         <v>14717</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4414,13 @@
         <v>7466</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4468,13 +4429,13 @@
         <v>3582</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4483,13 +4444,13 @@
         <v>11048</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,7 +4486,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4540,7 +4501,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,7 +4537,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4591,7 +4552,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,7 +4588,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4642,7 +4603,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4671,13 @@
         <v>37222</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -4725,13 +4686,13 @@
         <v>31075</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -4740,13 +4701,13 @@
         <v>68297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4722,13 @@
         <v>16810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -4776,13 +4737,13 @@
         <v>17363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -4791,13 +4752,13 @@
         <v>34173</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4773,13 @@
         <v>1370</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4827,13 +4788,13 @@
         <v>736</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -4842,13 +4803,13 @@
         <v>2106</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4824,13 @@
         <v>1279</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4878,13 +4839,13 @@
         <v>1366</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4893,13 +4854,13 @@
         <v>2645</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4875,13 @@
         <v>806</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -4929,13 +4890,13 @@
         <v>1631</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -4944,13 +4905,13 @@
         <v>2436</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,7 +4967,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5018,13 +4979,13 @@
         <v>55228</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -5033,13 +4994,13 @@
         <v>57282</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>169</v>
@@ -5048,13 +5009,13 @@
         <v>112509</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5030,13 @@
         <v>31142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -5084,13 +5045,13 @@
         <v>30680</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -5099,13 +5060,13 @@
         <v>61821</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5081,13 @@
         <v>6144</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>141</v>
+        <v>302</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -5135,13 +5096,13 @@
         <v>7180</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -5150,13 +5111,13 @@
         <v>13325</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5132,13 @@
         <v>646</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5186,13 +5147,13 @@
         <v>609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5201,13 +5162,13 @@
         <v>1255</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,13 +5183,13 @@
         <v>1383</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5237,13 +5198,13 @@
         <v>2086</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5252,13 +5213,13 @@
         <v>3469</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>67</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,7 +5275,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5326,13 +5287,13 @@
         <v>50426</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -5341,13 +5302,13 @@
         <v>37786</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
         <v>135</v>
@@ -5356,13 +5317,13 @@
         <v>88212</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5338,13 @@
         <v>14591</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -5392,13 +5353,13 @@
         <v>20996</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>337</v>
+        <v>198</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M23" s="7">
         <v>57</v>
@@ -5407,13 +5368,13 @@
         <v>35588</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5389,13 @@
         <v>2196</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -5443,13 +5404,13 @@
         <v>5050</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -5458,13 +5419,13 @@
         <v>7246</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>63</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5440,13 @@
         <v>1214</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5500,7 +5461,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5509,13 +5470,13 @@
         <v>1214</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>207</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5491,13 @@
         <v>654</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5545,13 +5506,13 @@
         <v>678</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5560,13 +5521,13 @@
         <v>1332</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,7 +5583,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5634,13 +5595,13 @@
         <v>58211</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H28" s="7">
         <v>61</v>
@@ -5649,13 +5610,13 @@
         <v>46939</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M28" s="7">
         <v>141</v>
@@ -5664,13 +5625,13 @@
         <v>105150</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5646,13 @@
         <v>27954</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -5700,13 +5661,13 @@
         <v>30231</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M29" s="7">
         <v>77</v>
@@ -5715,13 +5676,13 @@
         <v>58185</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>377</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5697,13 @@
         <v>3689</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>134</v>
+        <v>370</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>379</v>
+        <v>268</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -5751,13 +5712,13 @@
         <v>8555</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -5766,13 +5727,13 @@
         <v>12243</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,7 +5754,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5808,7 +5769,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5823,7 +5784,7 @@
         <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,7 +5805,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5859,7 +5820,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5874,7 +5835,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5903,13 @@
         <v>208111</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="H34" s="7">
         <v>256</v>
@@ -5957,13 +5918,13 @@
         <v>180775</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M34" s="7">
         <v>559</v>
@@ -5972,13 +5933,13 @@
         <v>388885</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5954,13 @@
         <v>97963</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H35" s="7">
         <v>148</v>
@@ -6008,13 +5969,13 @@
         <v>102852</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M35" s="7">
         <v>289</v>
@@ -6023,13 +5984,13 @@
         <v>200815</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>14</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,13 +6005,13 @@
         <v>13398</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>316</v>
+        <v>398</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H36" s="7">
         <v>30</v>
@@ -6059,13 +6020,13 @@
         <v>21521</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M36" s="7">
         <v>50</v>
@@ -6074,13 +6035,13 @@
         <v>34919</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>410</v>
+        <v>279</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6056,13 @@
         <v>3139</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>218</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>414</v>
+        <v>105</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -6110,13 +6071,13 @@
         <v>1975</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>225</v>
+        <v>409</v>
       </c>
       <c r="M37" s="7">
         <v>8</v>
@@ -6125,13 +6086,13 @@
         <v>5114</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6107,13 @@
         <v>2842</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -6161,13 +6122,13 @@
         <v>4395</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>421</v>
+        <v>222</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="M38" s="7">
         <v>10</v>
@@ -6176,13 +6137,13 @@
         <v>7237</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>228</v>
+        <v>417</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>424</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,7 +6199,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6259,7 +6220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E851AD4-406C-458E-8B49-8E81AC5B3A57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D332BC-A81C-44B2-AD2F-F9EDD2C955B7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6276,7 +6237,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6383,13 +6344,13 @@
         <v>10356</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -6398,13 +6359,13 @@
         <v>7822</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -6413,13 +6374,13 @@
         <v>18178</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6395,13 @@
         <v>2851</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>357</v>
+        <v>429</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6449,13 +6410,13 @@
         <v>4901</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -6464,13 +6425,13 @@
         <v>7752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,7 +6467,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6521,7 +6482,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,7 +6518,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6572,7 +6533,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,7 +6569,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6623,7 +6584,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,13 +6652,13 @@
         <v>31312</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -6706,13 +6667,13 @@
         <v>33177</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
@@ -6721,13 +6682,13 @@
         <v>64489</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6703,13 @@
         <v>18983</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>454</v>
+        <v>89</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -6757,13 +6718,13 @@
         <v>20322</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>459</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -6772,13 +6733,13 @@
         <v>39305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,13 +6754,13 @@
         <v>6814</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -6808,13 +6769,13 @@
         <v>2782</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>467</v>
+        <v>108</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -6823,13 +6784,13 @@
         <v>9596</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>206</v>
+        <v>461</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,7 +6811,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6865,7 +6826,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6880,7 +6841,7 @@
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6856,13 @@
         <v>727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6916,7 +6877,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -6925,13 +6886,13 @@
         <v>727</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>475</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,7 +6948,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6999,13 +6960,13 @@
         <v>62556</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -7014,13 +6975,13 @@
         <v>54162</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="M16" s="7">
         <v>169</v>
@@ -7029,13 +6990,13 @@
         <v>116719</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,13 +7011,13 @@
         <v>31422</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -7065,13 +7026,13 @@
         <v>38654</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -7080,13 +7041,13 @@
         <v>70077</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7062,13 @@
         <v>8001</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -7116,13 +7077,13 @@
         <v>6170</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>498</v>
+        <v>415</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -7131,13 +7092,13 @@
         <v>14171</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7113,13 @@
         <v>790</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -7167,13 +7128,13 @@
         <v>1537</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -7182,13 +7143,13 @@
         <v>2327</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,7 +7170,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>499</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7218,13 +7179,13 @@
         <v>1808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -7233,13 +7194,13 @@
         <v>1808</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,7 +7256,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7307,13 +7268,13 @@
         <v>49820</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -7322,13 +7283,13 @@
         <v>45626</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="M22" s="7">
         <v>140</v>
@@ -7337,13 +7298,13 @@
         <v>95447</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7319,13 @@
         <v>21765</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -7373,13 +7334,13 @@
         <v>18687</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="M23" s="7">
         <v>60</v>
@@ -7388,13 +7349,13 @@
         <v>40452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>532</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7370,13 @@
         <v>3036</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7424,13 +7385,13 @@
         <v>4140</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>536</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>320</v>
+        <v>526</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -7439,13 +7400,13 @@
         <v>7176</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>539</v>
+        <v>399</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,7 +7427,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -7481,7 +7442,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -7490,13 +7451,13 @@
         <v>524</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>225</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7517,7 +7478,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7526,13 +7487,13 @@
         <v>931</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>65</v>
+        <v>533</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -7541,13 +7502,13 @@
         <v>931</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,7 +7564,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7615,13 +7576,13 @@
         <v>54185</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="H28" s="7">
         <v>67</v>
@@ -7630,13 +7591,13 @@
         <v>52485</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="M28" s="7">
         <v>139</v>
@@ -7645,13 +7606,13 @@
         <v>106670</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,13 +7627,13 @@
         <v>39638</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>557</v>
+        <v>123</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -7681,13 +7642,13 @@
         <v>40034</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="M29" s="7">
         <v>108</v>
@@ -7696,13 +7657,13 @@
         <v>79673</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,13 +7678,13 @@
         <v>3260</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>216</v>
+        <v>554</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -7732,13 +7693,13 @@
         <v>8596</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
@@ -7747,13 +7708,13 @@
         <v>11856</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,13 +7729,13 @@
         <v>2445</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -7783,13 +7744,13 @@
         <v>1479</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>574</v>
+        <v>373</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -7798,13 +7759,13 @@
         <v>3924</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7825,7 +7786,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -7834,13 +7795,13 @@
         <v>583</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -7849,13 +7810,13 @@
         <v>583</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7923,28 +7884,28 @@
         <v>208229</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="H34" s="7">
         <v>274</v>
       </c>
       <c r="I34" s="7">
-        <v>193274</v>
+        <v>193273</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="M34" s="7">
         <v>558</v>
@@ -7953,13 +7914,13 @@
         <v>401503</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7974,28 +7935,28 @@
         <v>114659</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="H35" s="7">
         <v>176</v>
       </c>
       <c r="I35" s="7">
-        <v>122600</v>
+        <v>122599</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
       <c r="M35" s="7">
         <v>335</v>
@@ -8004,13 +7965,13 @@
         <v>237258</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8025,13 +7986,13 @@
         <v>21111</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -8040,13 +8001,13 @@
         <v>21689</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>603</v>
+        <v>132</v>
       </c>
       <c r="M36" s="7">
         <v>61</v>
@@ -8055,13 +8016,13 @@
         <v>42801</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>606</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8076,13 +8037,13 @@
         <v>3234</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>131</v>
+        <v>595</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -8091,13 +8052,13 @@
         <v>3540</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>607</v>
+        <v>524</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>418</v>
+        <v>596</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>608</v>
+        <v>69</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -8106,13 +8067,13 @@
         <v>6774</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8127,13 +8088,13 @@
         <v>727</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>612</v>
+        <v>223</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>142</v>
+        <v>600</v>
       </c>
       <c r="H38" s="7">
         <v>5</v>
@@ -8142,13 +8103,13 @@
         <v>3322</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -8157,13 +8118,13 @@
         <v>4048</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>615</v>
+        <v>417</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>467</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8190,7 +8151,7 @@
         <v>491</v>
       </c>
       <c r="I39" s="7">
-        <v>344425</v>
+        <v>344424</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>42</v>
@@ -8219,7 +8180,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
